--- a/excel_templates/Measles_NTA_Template.xlsx
+++ b/excel_templates/Measles_NTA_Template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10830"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samscott/Desktop/NTAWeb/excel_templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{52A501A0-FBE8-DB4E-8C2E-304AA4DE419B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1917C50C-57F1-2541-9257-DB3D548BDFCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" xr2:uid="{89CE6B3D-78DD-D94C-B005-DB023AC169C8}"/>
   </bookViews>
@@ -796,13 +796,7 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -832,7 +826,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1180,7 +1180,7 @@
   <dimension ref="A2:AB31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="133" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:A12"/>
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1190,48 +1190,48 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="B2" s="59" t="s">
+      <c r="B2" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="60"/>
-      <c r="K2" s="60"/>
-      <c r="L2" s="60"/>
-      <c r="M2" s="61"/>
-      <c r="P2" s="59" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="60"/>
-      <c r="R2" s="60"/>
-      <c r="S2" s="61"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="70"/>
+      <c r="L2" s="70"/>
+      <c r="M2" s="71"/>
+      <c r="P2" s="69" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="70"/>
+      <c r="R2" s="70"/>
+      <c r="S2" s="71"/>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="B3" s="59" t="s">
+      <c r="B3" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="60"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="59" t="s">
+      <c r="C3" s="70"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="60"/>
-      <c r="G3" s="61"/>
-      <c r="H3" s="59" t="s">
+      <c r="F3" s="70"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="60"/>
-      <c r="J3" s="61"/>
-      <c r="K3" s="59" t="s">
+      <c r="I3" s="70"/>
+      <c r="J3" s="71"/>
+      <c r="K3" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="60"/>
-      <c r="M3" s="61"/>
+      <c r="L3" s="70"/>
+      <c r="M3" s="71"/>
       <c r="P3" s="2" t="str">
         <f>B3</f>
         <v>Empty</v>
@@ -1253,26 +1253,26 @@
       <c r="A4" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="62" t="s">
+      <c r="B4" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="63"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="62" t="s">
+      <c r="C4" s="61"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="63"/>
-      <c r="G4" s="64"/>
-      <c r="H4" s="62" t="s">
+      <c r="F4" s="61"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="63"/>
-      <c r="J4" s="64"/>
-      <c r="K4" s="62" t="s">
+      <c r="I4" s="61"/>
+      <c r="J4" s="62"/>
+      <c r="K4" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="L4" s="63"/>
-      <c r="M4" s="64"/>
+      <c r="L4" s="61"/>
+      <c r="M4" s="62"/>
       <c r="P4" s="5" t="str">
         <f>B4</f>
         <v>Empty</v>
@@ -1291,7 +1291,7 @@
       </c>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A5" s="71">
+      <c r="A5" s="59">
         <v>32</v>
       </c>
       <c r="B5" s="28"/>
@@ -1327,7 +1327,7 @@
       </c>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A6" s="71">
+      <c r="A6" s="59">
         <v>64</v>
       </c>
       <c r="B6" s="28"/>
@@ -1363,7 +1363,7 @@
       </c>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A7" s="71">
+      <c r="A7" s="59">
         <v>256</v>
       </c>
       <c r="B7" s="28"/>
@@ -1399,7 +1399,7 @@
       </c>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A8" s="71">
+      <c r="A8" s="59">
         <v>1024</v>
       </c>
       <c r="B8" s="28"/>
@@ -1435,7 +1435,7 @@
       </c>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A9" s="71">
+      <c r="A9" s="59">
         <v>4096</v>
       </c>
       <c r="B9" s="28"/>
@@ -1471,7 +1471,7 @@
       </c>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A10" s="71">
+      <c r="A10" s="59">
         <v>16384</v>
       </c>
       <c r="B10" s="28"/>
@@ -1507,7 +1507,7 @@
       </c>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A11" s="71">
+      <c r="A11" s="59">
         <v>65536</v>
       </c>
       <c r="B11" s="28"/>
@@ -1543,7 +1543,7 @@
       </c>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A12" s="71">
+      <c r="A12" s="59">
         <v>0</v>
       </c>
       <c r="B12" s="33"/>
@@ -2013,20 +2013,20 @@
       </c>
     </row>
     <row r="24" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="F24" s="65" t="s">
+      <c r="F24" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="G24" s="67" t="s">
+      <c r="G24" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="H24" s="69" t="s">
+      <c r="H24" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="I24" s="70"/>
+      <c r="I24" s="68"/>
     </row>
     <row r="25" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="F25" s="66"/>
-      <c r="G25" s="68"/>
+      <c r="F25" s="64"/>
+      <c r="G25" s="66"/>
       <c r="H25" s="18" t="s">
         <v>2</v>
       </c>
@@ -2044,12 +2044,18 @@
         <v>Empty</v>
       </c>
       <c r="H26" s="15" t="str">
-        <f>IF(C19 &gt; A11, "≥" &amp; A11, C19)</f>
-        <v>≥65536</v>
+        <f>IF(ISNUMBER(C19),
+    IF(C19 &lt; A5, "≤" &amp; A5, IF(C19 &gt; A11, "≥" &amp; A11, C19)),
+    IF(VALUE(SUBSTITUTE(C19, "≤", "")) &lt; A5, "≤" &amp; A5, C19)
+)</f>
+        <v>≤32</v>
       </c>
       <c r="I26" s="21" t="str">
-        <f>IF(C21 &gt; A11, "≥" &amp; A11, C21)</f>
-        <v>≥65536</v>
+        <f>IF(ISNUMBER(C21),
+    IF(C21 &lt; A5, "≤" &amp; A5, IF(C21 &gt; A11, "≥" &amp; A11, C21)),
+    IF(VALUE(SUBSTITUTE(C21, "≤", "")) &lt; A5, "≤" &amp; A5, C21)
+)</f>
+        <v>≤32</v>
       </c>
     </row>
     <row r="27" spans="1:28" x14ac:dyDescent="0.2">
@@ -2062,12 +2068,15 @@
         <v>Empty</v>
       </c>
       <c r="H27" s="16" t="str">
-        <f>IF(F19 &gt; A11, "≥" &amp; A11, F19)</f>
-        <v>≥65536</v>
+        <f>IF(ISNUMBER(F19), IF(F19 &lt; A5, "≤" &amp; A5, IF(F19 &gt; A11, "≥" &amp; A11, F19)), IF(VALUE(SUBSTITUTE(F19, "≤", "")) &lt; A5, "≤" &amp; A5, F19) )</f>
+        <v>≤32</v>
       </c>
       <c r="I27" s="22" t="str">
-        <f>IF(F21 &gt; A11, "≥" &amp; A11, F21)</f>
-        <v>≥65536</v>
+        <f>IF(ISNUMBER(F21),
+    IF(F21 &lt; A5, "≤" &amp; A5, IF(F21 &gt; A11, "≥" &amp; A11, F21)),
+    IF(VALUE(SUBSTITUTE(F21, "≤", "")) &lt; A5, "≤" &amp; A5, F21)
+)</f>
+        <v>≤32</v>
       </c>
     </row>
     <row r="28" spans="1:28" x14ac:dyDescent="0.2">
@@ -2080,12 +2089,18 @@
         <v>Empty</v>
       </c>
       <c r="H28" s="16" t="str">
-        <f>IF(I19 &gt; A11, "≥" &amp; A11, I19)</f>
-        <v>≥65536</v>
+        <f>IF(ISNUMBER(I19),
+    IF(I19 &lt; A5, "≤" &amp; A5, IF(I19 &gt; A11, "≥" &amp; A11, I19)),
+    IF(VALUE(SUBSTITUTE(I19, "≤", "")) &lt; A5, "≤" &amp; A5, I19)
+)</f>
+        <v>≤32</v>
       </c>
       <c r="I28" s="22" t="str">
-        <f>IF(I21 &gt; A11, "≥" &amp; A11, I21)</f>
-        <v>≥65536</v>
+        <f>IF(ISNUMBER(I21),
+    IF(I21 &lt; A5, "≤" &amp; A5, IF(I21 &gt; A11, "≥" &amp; A11, I21)),
+    IF(VALUE(SUBSTITUTE(I21, "≤", "")) &lt; A5, "≤" &amp; A5, I21)
+)</f>
+        <v>≤32</v>
       </c>
     </row>
     <row r="29" spans="1:28" x14ac:dyDescent="0.2">
@@ -2098,12 +2113,18 @@
         <v>Empty</v>
       </c>
       <c r="H29" s="17" t="str">
-        <f>IF(L19 &gt; A11, "≥" &amp; A11, L19)</f>
-        <v>≥65536</v>
+        <f>IF(ISNUMBER(L19),
+    IF(L19 &lt; A5, "≤" &amp; A5, IF(L19 &gt; A11, "≥" &amp; A11, L19)),
+    IF(VALUE(SUBSTITUTE(L19, "≤", "")) &lt; A5, "≤" &amp; A5, L19)
+)</f>
+        <v>≤32</v>
       </c>
       <c r="I29" s="23" t="str">
-        <f>IF(L21 &gt; A11, "≥" &amp; A11, L21)</f>
-        <v>≥65536</v>
+        <f>IF(ISNUMBER(L21),
+    IF(L21 &lt; A5, "≤" &amp; A5, IF(L21 &gt; A11, "≥" &amp; A11, L21)),
+    IF(VALUE(SUBSTITUTE(L21, "≤", "")) &lt; A5, "≤" &amp; A5, L21)
+)</f>
+        <v>≤32</v>
       </c>
     </row>
     <row r="30" spans="1:28" x14ac:dyDescent="0.2">
@@ -2118,6 +2139,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="P2:S2"/>
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="K3:M3"/>
     <mergeCell ref="K4:M4"/>
     <mergeCell ref="H4:J4"/>
     <mergeCell ref="E4:G4"/>
@@ -2125,12 +2152,6 @@
     <mergeCell ref="F24:F25"/>
     <mergeCell ref="G24:G25"/>
     <mergeCell ref="H24:I24"/>
-    <mergeCell ref="P2:S2"/>
-    <mergeCell ref="B2:M2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="K3:M3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B5:M12">
